--- a/story/Main Story and Others 主线剧情等/guide 导航文字/beg/2_guide_to_home.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/beg/2_guide_to_home.xlsx
@@ -876,7 +876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]   This way, we'll have an edge in battle. 
+    <t xml:space="preserve">[name="Amiya"]   This way, we'll have an edge in battle. 
 </t>
   </si>
   <si>
